--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,43 +1243,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>159500</v>
+        <v>534375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>非保税</t>
+          <t>保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1289,65 +1289,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>181250</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>07885</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2020-08-06</t>
+          <t>2020-08-19</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1484,49 +1426,49 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.104</t>
+          <t>TW8011001</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1557,49 +1499,49 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.105</t>
+          <t>TW8011002</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1630,49 +1572,49 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.106</t>
+          <t>TW8011003</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1703,49 +1645,49 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.107</t>
+          <t>TW8011010</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1776,49 +1718,49 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.108</t>
+          <t>TW8011011</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1849,49 +1791,49 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.109</t>
+          <t>TW8011012</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1922,49 +1864,49 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.110</t>
+          <t>TW8011013</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -1995,49 +1937,49 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.111</t>
+          <t>TW8011014</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2068,49 +2010,49 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.112</t>
+          <t>TW8011015</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2141,49 +2083,49 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.113</t>
+          <t>TW8011016</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2214,49 +2156,49 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.114</t>
+          <t>TW8011017</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2287,49 +2229,49 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.115</t>
+          <t>TW8011018</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2360,49 +2302,49 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.116</t>
+          <t>TW8011019</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2433,49 +2375,49 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.117</t>
+          <t>TW8011020</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2506,49 +2448,49 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.118</t>
+          <t>TW8011021</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2579,49 +2521,49 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.119</t>
+          <t>TW8011022</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2652,49 +2594,49 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.120</t>
+          <t>TW8011023</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2725,49 +2667,49 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.121</t>
+          <t>TW8011024</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2798,49 +2740,49 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>AP623003P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>GH3103</t>
+          <t>AP623003P</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>AP62300</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XHDA12B</t>
+          <t>XBJ10507B</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>TW80110</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.122</t>
+          <t>TW8011025</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>3625</v>
+        <v>28125</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -2863,2050 +2805,6 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>TWRS13.1</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>TWRS13.123</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>TWRS13.1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>TWRS13.124</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>TWRS13.1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TWRS13.125</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>TWTC90.101</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>TWTC90.102</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>TWTC90.103</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>TWTC90.104</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>TWTC90.105</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>TWTC90.106</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>TWTC90.107</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TWTC90.108</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>TWTC90.109</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>TWTC90.110</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>TWTC90.111</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TWTC90.112</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>TWTC90.113</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>TWTC90.114</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>TWTC90.115</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>TWTC90.116</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>TWTC90.117</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TWTC90.118</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TWTC90.119</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TWTC90.120</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TWTC90.121</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TWTC90.122</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>TWTC90.123</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>TWTC90.124</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>6600007823</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GH3103</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>TMMI60C</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>XHDA12B</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>TWTC90.1</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>TWTC90.125</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3625</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
